--- a/results/tinybert/dilemma/confidence/lossy/avg_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/lossy/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="227">
   <si>
     <t>negative</t>
   </si>
@@ -43,526 +43,652 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>harmful</t>
+    <t>terrifying</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>unnecessary</t>
   </si>
   <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>frustrating</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>racist</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>dangerously</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>bleak</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>ridiculous</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>destroying</t>
   </si>
   <si>
     <t>artificial</t>
   </si>
   <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>harsh</t>
+    <t>annoyed</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ruining</t>
   </si>
   <si>
     <t>harder</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>silly</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>ugly</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>breaking</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>consuming</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>extreme</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>slight</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>somewhat</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>lonely</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>deeply</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>black</t>
+    <t>little</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>goals</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>reviewed</t>
   </si>
   <si>
     <t>masterpiece</t>
   </si>
   <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>curated</t>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>doo</t>
+  </si>
+  <si>
+    <t>loving</t>
   </si>
   <si>
     <t>outstanding</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>timely</t>
   </si>
   <si>
     <t>mack</t>
   </si>
   <si>
-    <t>rev</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>update</t>
+    <t>agile</t>
   </si>
   <si>
     <t>welcome</t>
   </si>
   <si>
-    <t>similar</t>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>hugely</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>ya</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>genuinely</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>holy</t>
   </si>
   <si>
-    <t>pretty</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>’</t>
@@ -926,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -992,16 +1118,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1016,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1042,16 +1168,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1066,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1092,7 +1218,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1116,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1142,16 +1268,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1166,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1192,16 +1318,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1216,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1242,16 +1368,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1266,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1287,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1316,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>0.9090909090909091</v>
@@ -1342,16 +1468,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1366,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1387,12 +1513,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1416,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K11">
         <v>0.8</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1437,12 +1563,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1466,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1492,7 +1618,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1516,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K13">
-        <v>0.631578947368421</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1537,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1566,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1587,12 +1713,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1616,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1642,16 +1768,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1666,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1687,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1716,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1742,16 +1868,16 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1766,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1787,12 +1913,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1816,16 +1942,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1837,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1863,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1887,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1913,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1937,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1963,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K22">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1987,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.9711538461538461</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C23">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2013,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23">
-        <v>0.4266666666666667</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
       <c r="M23">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2037,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2066,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K24">
-        <v>0.4137931034482759</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2087,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2113,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K25">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2137,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2166,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K26">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2187,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2195,13 +2321,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2213,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K27">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2237,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2245,37 +2371,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K28">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2287,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2298,10 +2424,10 @@
         <v>0.75</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2313,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K29">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2337,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2366,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K30">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2387,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2416,16 +2542,16 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K31">
-        <v>0.3333333333333333</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2437,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2445,37 +2571,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K32">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2487,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2495,13 +2621,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2513,31 +2639,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K33">
-        <v>0.25</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>4</v>
-      </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2545,13 +2671,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2563,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K34">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -2587,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2598,10 +2724,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2613,19 +2739,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K35">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2666,16 +2792,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K36">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2687,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2698,10 +2824,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2713,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K37">
-        <v>0.25</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2737,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2745,13 +2871,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2763,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K38">
-        <v>0.2105263157894737</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L38">
         <v>4</v>
@@ -2787,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2795,13 +2921,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2813,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K39">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2837,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2845,13 +2971,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2863,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K40">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2887,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2895,13 +3021,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2913,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K41">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2937,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2945,13 +3071,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2963,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2987,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2995,13 +3121,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3013,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K43">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -3037,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3045,13 +3171,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3063,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K44">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -3087,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3095,13 +3221,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3113,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K45">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -3137,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3145,13 +3271,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3163,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K46">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3187,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3195,13 +3321,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3213,19 +3339,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K47">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3237,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3245,13 +3371,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3263,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K48">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3287,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3295,13 +3421,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3313,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K49">
-        <v>0.0625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3337,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3345,13 +3471,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3363,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K50">
-        <v>0.05882352941176471</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3387,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3398,10 +3524,10 @@
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3413,19 +3539,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K51">
-        <v>0.05633802816901409</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3437,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3466,28 +3592,28 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K52">
-        <v>0.05084745762711865</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>3</v>
-      </c>
-      <c r="M52">
-        <v>3</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3498,10 +3624,10 @@
         <v>0.5</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3513,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K53">
-        <v>0.02777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3537,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3548,10 +3674,10 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3563,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K54">
-        <v>0.025</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3587,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3598,10 +3724,10 @@
         <v>0.5</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3613,19 +3739,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K55">
-        <v>0.01851851851851852</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3637,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3666,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K56">
-        <v>0.01851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3687,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3695,13 +3821,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3713,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K57">
-        <v>0.01639344262295082</v>
+        <v>0.2</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3737,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3745,13 +3871,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3763,19 +3889,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K58">
-        <v>0.01548269581056466</v>
+        <v>0.2</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3787,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1081</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3795,13 +3921,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3813,19 +3939,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="K59">
-        <v>0.003012048192771084</v>
+        <v>0.1875</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3837,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>662</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3845,13 +3971,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3863,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K60">
-        <v>0.001280409731113956</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3887,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>780</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3895,13 +4021,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3913,19 +4039,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K61">
-        <v>0.001152073732718894</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3937,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1734</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3945,13 +4071,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3963,7 +4089,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3971,7 +4121,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -3989,7 +4139,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3997,13 +4171,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4015,21 +4189,45 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K64">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4041,21 +4239,45 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K65">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4067,21 +4289,45 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.4927536231884058</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4093,21 +4339,45 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K67">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.4893617021276596</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4119,21 +4389,45 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4145,21 +4439,45 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K69">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4171,21 +4489,45 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K70">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4197,21 +4539,45 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K71">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4223,21 +4589,45 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K72">
+        <v>0.125</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4249,21 +4639,45 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K73">
+        <v>0.1186440677966102</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.3684210526315789</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4275,21 +4689,45 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74">
+        <v>0.1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4301,21 +4739,45 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K75">
+        <v>0.1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4327,10 +4789,34 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76">
+        <v>0.1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -4355,8 +4841,32 @@
       <c r="H77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="J77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K77">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -4381,19 +4891,43 @@
       <c r="H78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="J78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K78">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.3333333333333333</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4405,21 +4939,45 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K79">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4431,15 +4989,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K80">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4457,21 +5039,45 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K81">
+        <v>0.0625</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4483,21 +5089,45 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K82">
+        <v>0.0625</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.3333333333333333</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4509,21 +5139,45 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K83">
+        <v>0.0625</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4535,21 +5189,45 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K84">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4561,15 +5239,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K85">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4587,15 +5289,39 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K86">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4613,21 +5339,45 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K87">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.3333333333333333</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4639,21 +5389,45 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K88">
+        <v>0.03642987249544627</v>
+      </c>
+      <c r="L88">
+        <v>40</v>
+      </c>
+      <c r="M88">
+        <v>40</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3333333333333333</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4665,21 +5439,45 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K89">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3043478260869565</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4691,21 +5489,45 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K90">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4717,21 +5539,45 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K91">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4743,15 +5589,39 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K92">
+        <v>0.025</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4769,21 +5639,45 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K93">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4795,15 +5689,39 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K94">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4821,15 +5739,39 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95">
+        <v>0.02105263157894737</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4847,21 +5789,45 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K96">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2142857142857143</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4873,21 +5839,45 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K97">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2083333333333333</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4899,21 +5889,45 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K98">
+        <v>0.01886792452830189</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4925,21 +5939,45 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K99">
+        <v>0.01886792452830189</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4951,15 +5989,39 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K100">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.2</v>
+        <v>0.0625</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4977,15 +6039,39 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K101">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.2</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5003,21 +6089,45 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K102">
+        <v>0.01492537313432836</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1785714285714286</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5029,21 +6139,45 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K103">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1666666666666667</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5055,15 +6189,39 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K104">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5081,371 +6239,367 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K105">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1666666666666667</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C108">
+        <v>296</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K106">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="J107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K107">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="J108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K108">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="J109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K109">
+        <v>0.007575757575757576</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="J110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K110">
+        <v>0.006349206349206349</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="J111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K111">
+        <v>0.00487012987012987</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="J112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K112">
+        <v>0.004518072289156626</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113">
+        <v>0.003703703703703704</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K114">
+        <v>0.00353356890459364</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K115">
+        <v>0.003367003367003367</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>0.67</v>
+      </c>
+      <c r="O115">
+        <v>0.33</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K116">
+        <v>0.002560819462227913</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K117">
+        <v>0.002304147465437788</v>
+      </c>
+      <c r="L117">
         <v>4</v>
       </c>
-      <c r="D108">
+      <c r="M117">
         <v>4</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117">
-        <v>0.04</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118">
-        <v>0.0334448160535117</v>
-      </c>
-      <c r="C118">
-        <v>10</v>
-      </c>
-      <c r="D118">
-        <v>10</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>34</v>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
